--- a/data/trans_orig/P2A_fisi_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D66A8DEB-C1EE-46BF-B8C8-DD17949FD8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37689927-3AF0-483F-96D6-F67E0761DDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8A461131-6A7B-4CC4-A0C3-135B03730AE3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F2CCD86-6377-46B9-B279-CBFE7AE332F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="599">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="593">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,1765 +77,1747 @@
     <t>2,84%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,43%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>6,1%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
   </si>
   <si>
     <t>93,9%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>10,16%</t>
   </si>
   <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
   </si>
   <si>
     <t>89,84%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
     <t>87,25%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
 </sst>
 </file>
@@ -2247,7 +2229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48076A6E-8FD3-412E-BAD5-BC737ACD82EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD4DF54-523E-4381-A645-A41CC4004EEC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2529,10 +2511,10 @@
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -2541,13 +2523,13 @@
         <v>39112</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>73</v>
@@ -2556,13 +2538,13 @@
         <v>77692</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2559,13 @@
         <v>454496</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H8" s="7">
         <v>461</v>
@@ -2592,13 +2574,13 @@
         <v>464837</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>891</v>
@@ -2607,13 +2589,13 @@
         <v>919332</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2651,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2681,13 +2663,13 @@
         <v>6922</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2696,13 +2678,13 @@
         <v>9560</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2711,13 +2693,13 @@
         <v>16482</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,13 +2714,13 @@
         <v>311924</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>325</v>
@@ -2747,13 +2729,13 @@
         <v>325852</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>628</v>
@@ -2762,13 +2744,13 @@
         <v>637776</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2824,7 +2806,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2836,13 +2818,13 @@
         <v>8246</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -2851,13 +2833,13 @@
         <v>17741</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -2866,13 +2848,13 @@
         <v>25988</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2869,13 @@
         <v>350425</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>366</v>
@@ -2902,13 +2884,13 @@
         <v>353715</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>719</v>
@@ -2917,13 +2899,13 @@
         <v>704139</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2961,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2991,13 +2973,13 @@
         <v>16585</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3006,13 +2988,13 @@
         <v>20724</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -3021,13 +3003,13 @@
         <v>37309</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,13 +3024,13 @@
         <v>186723</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -3301,13 +3283,13 @@
         <v>34608</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3316,13 +3298,13 @@
         <v>35555</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>67</v>
@@ -3331,13 +3313,13 @@
         <v>70163</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3334,13 @@
         <v>580419</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -3367,13 +3349,13 @@
         <v>602664</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1152</v>
@@ -3382,13 +3364,13 @@
         <v>1183083</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,7 +3426,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3456,13 +3438,13 @@
         <v>48982</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -3471,13 +3453,13 @@
         <v>73557</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>117</v>
@@ -3486,13 +3468,13 @@
         <v>122539</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3489,13 @@
         <v>694813</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>677</v>
@@ -3522,13 +3504,13 @@
         <v>709954</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1364</v>
@@ -3537,13 +3519,13 @@
         <v>1404767</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3593,13 @@
         <v>163611</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H28" s="7">
         <v>198</v>
@@ -3626,13 +3608,13 @@
         <v>209674</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>92</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>360</v>
@@ -3641,13 +3623,13 @@
         <v>373284</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,16 +3641,16 @@
         <v>3052</v>
       </c>
       <c r="D29" s="7">
-        <v>3112932</v>
+        <v>3112933</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>3099</v>
@@ -3677,28 +3659,28 @@
         <v>3169524</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>6151</v>
       </c>
       <c r="N29" s="7">
-        <v>6282457</v>
+        <v>6282456</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3692,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3740,7 +3722,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3754,7 +3736,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A97611A0-81BD-4092-B9CD-36B4196FA381}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FFE8CF-781D-401B-A130-6FD5E2DF6450}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3795,7 +3777,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3900,39 +3882,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,39 +3927,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,39 +3972,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4021,13 @@
         <v>40881</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -4054,13 +4036,13 @@
         <v>42528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -4069,13 +4051,13 @@
         <v>83408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4072,13 @@
         <v>464646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -4105,13 +4087,13 @@
         <v>481237</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>877</v>
@@ -4120,13 +4102,13 @@
         <v>945884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,7 +4164,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4194,13 +4176,13 @@
         <v>24209</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4209,13 +4191,13 @@
         <v>27298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -4224,13 +4206,13 @@
         <v>51507</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4227,13 @@
         <v>299837</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>291</v>
@@ -4260,13 +4242,13 @@
         <v>313722</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>589</v>
@@ -4337,7 +4319,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4492,7 +4474,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4674,10 +4656,10 @@
         <v>31348</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>202</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>253</v>
@@ -4692,10 +4674,10 @@
         <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4710,13 +4692,13 @@
         <v>257908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4725,13 +4707,13 @@
         <v>248683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>192</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -4740,13 +4722,13 @@
         <v>506590</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4796,13 @@
         <v>44659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -4829,13 +4811,13 @@
         <v>53643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4844,13 +4826,13 @@
         <v>98302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4847,13 @@
         <v>618129</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -4880,13 +4862,13 @@
         <v>640210</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>1167</v>
@@ -4895,13 +4877,13 @@
         <v>1258339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +4939,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4969,13 +4951,13 @@
         <v>51513</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -4984,13 +4966,13 @@
         <v>51024</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -4999,13 +4981,13 @@
         <v>102538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>288</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5002,13 @@
         <v>727585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>711</v>
@@ -5035,13 +5017,13 @@
         <v>772829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>1383</v>
@@ -5050,13 +5032,13 @@
         <v>1500413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5106,13 @@
         <v>250504</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>296</v>
@@ -5139,13 +5121,13 @@
         <v>323353</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>523</v>
@@ -5154,13 +5136,13 @@
         <v>573858</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5157,13 @@
         <v>3176275</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>3002</v>
@@ -5190,13 +5172,13 @@
         <v>3234956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>5984</v>
@@ -5205,13 +5187,13 @@
         <v>6411230</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5249,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5291,7 +5273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A1315D-1422-47BF-82B5-68444B5587F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17AA1E-4196-4217-B9DE-441F4AE38DE0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5308,7 +5290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5415,13 +5397,13 @@
         <v>16543</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5430,13 +5412,13 @@
         <v>25035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -5445,13 +5427,13 @@
         <v>41578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5448,13 @@
         <v>277218</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5481,13 +5463,13 @@
         <v>263668</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M5" s="7">
         <v>505</v>
@@ -5496,13 +5478,13 @@
         <v>540886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,13 +5552,13 @@
         <v>16757</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5585,10 +5567,10 @@
         <v>21304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>335</v>
@@ -5606,7 +5588,7 @@
         <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,13 +5603,13 @@
         <v>485818</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>465</v>
@@ -5636,13 +5618,13 @@
         <v>501780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>118</v>
       </c>
       <c r="M8" s="7">
         <v>924</v>
@@ -5651,13 +5633,13 @@
         <v>987598</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,7 +5695,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5725,13 +5707,13 @@
         <v>5075</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5740,13 +5722,13 @@
         <v>11719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -5755,13 +5737,13 @@
         <v>16794</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5776,13 +5758,13 @@
         <v>313490</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>115</v>
       </c>
       <c r="H11" s="7">
         <v>321</v>
@@ -5791,13 +5773,13 @@
         <v>324590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -5806,13 +5788,13 @@
         <v>638080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,7 +5850,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5880,13 +5862,13 @@
         <v>30756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5895,13 +5877,13 @@
         <v>42551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5910,13 +5892,13 @@
         <v>73307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5931,13 +5913,13 @@
         <v>339208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>371</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
@@ -5946,13 +5928,13 @@
         <v>344732</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -5961,13 +5943,13 @@
         <v>683940</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,7 +6005,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6035,13 +6017,13 @@
         <v>15139</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -6050,13 +6032,13 @@
         <v>15281</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -6065,13 +6047,13 @@
         <v>30420</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6068,13 @@
         <v>196082</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -6101,13 +6083,13 @@
         <v>203306</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>405</v>
@@ -6116,13 +6098,13 @@
         <v>399388</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,10 +6175,10 @@
         <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6205,13 +6187,13 @@
         <v>25207</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -6220,13 +6202,13 @@
         <v>47376</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6223,13 @@
         <v>240954</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>171</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -6256,13 +6238,13 @@
         <v>247908</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -6271,13 +6253,13 @@
         <v>488862</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6345,13 +6327,13 @@
         <v>27531</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>39</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -6360,13 +6342,13 @@
         <v>41657</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -6375,13 +6357,13 @@
         <v>69189</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6396,13 +6378,13 @@
         <v>629027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>610</v>
@@ -6411,13 +6393,13 @@
         <v>649637</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>1165</v>
@@ -6426,13 +6408,13 @@
         <v>1278663</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6470,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6500,13 +6482,13 @@
         <v>54524</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -6515,13 +6497,13 @@
         <v>61960</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -6530,13 +6512,13 @@
         <v>116484</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>435</v>
-      </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,13 +6533,13 @@
         <v>724059</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>700</v>
@@ -6566,13 +6548,13 @@
         <v>764207</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M26" s="7">
         <v>1400</v>
@@ -6581,13 +6563,13 @@
         <v>1488266</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6637,13 @@
         <v>188494</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>444</v>
+        <v>269</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>16</v>
+        <v>385</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>445</v>
+        <v>289</v>
       </c>
       <c r="H28" s="7">
         <v>217</v>
@@ -6670,13 +6652,13 @@
         <v>244714</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>443</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>396</v>
@@ -6685,13 +6667,13 @@
         <v>433208</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6688,13 @@
         <v>3205856</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>451</v>
+        <v>279</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>452</v>
+        <v>297</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>25</v>
+        <v>395</v>
       </c>
       <c r="H29" s="7">
         <v>3121</v>
@@ -6721,13 +6703,13 @@
         <v>3299828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>454</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>192</v>
+        <v>448</v>
       </c>
       <c r="M29" s="7">
         <v>6173</v>
@@ -6736,13 +6718,13 @@
         <v>6505684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,7 +6780,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6822,7 +6804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7167A1AF-52DD-417B-98D6-840DFBDF75E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C46671A-F187-4AF3-A2DE-7D33960D1960}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6839,7 +6821,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6946,13 +6928,13 @@
         <v>26322</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>459</v>
+        <v>203</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
@@ -6964,10 +6946,10 @@
         <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M4" s="7">
         <v>94</v>
@@ -6976,13 +6958,13 @@
         <v>56261</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6997,13 +6979,13 @@
         <v>233976</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>466</v>
+        <v>211</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>477</v>
@@ -7015,10 +6997,10 @@
         <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
@@ -7027,13 +7009,13 @@
         <v>475439</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7101,13 +7083,13 @@
         <v>94007</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>131</v>
@@ -7116,13 +7098,13 @@
         <v>87362</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M7" s="7">
         <v>206</v>
@@ -7131,13 +7113,13 @@
         <v>181369</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7152,13 +7134,13 @@
         <v>425290</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H8" s="7">
         <v>586</v>
@@ -7167,13 +7149,13 @@
         <v>467204</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -7182,13 +7164,13 @@
         <v>892495</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,7 +7226,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -7256,13 +7238,13 @@
         <v>41712</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -7271,13 +7253,13 @@
         <v>41037</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>492</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
@@ -7286,13 +7268,13 @@
         <v>82750</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7307,13 +7289,13 @@
         <v>280528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
@@ -7322,13 +7304,13 @@
         <v>332247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>501</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>782</v>
@@ -7337,13 +7319,13 @@
         <v>612774</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,7 +7381,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7411,13 +7393,13 @@
         <v>23697</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -7426,13 +7408,13 @@
         <v>20987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -7441,13 +7423,13 @@
         <v>44685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>504</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7462,13 +7444,13 @@
         <v>298543</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="H14" s="7">
         <v>563</v>
@@ -7477,13 +7459,13 @@
         <v>407569</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M14" s="7">
         <v>834</v>
@@ -7492,13 +7474,13 @@
         <v>706111</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>472</v>
+        <v>242</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>28</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,7 +7536,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7566,13 +7548,13 @@
         <v>14338</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>366</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -7584,10 +7566,10 @@
         <v>32</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -7596,13 +7578,13 @@
         <v>34621</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7617,13 +7599,13 @@
         <v>182410</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>446</v>
@@ -7632,13 +7614,13 @@
         <v>239229</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>529</v>
+        <v>437</v>
       </c>
       <c r="M17" s="7">
         <v>702</v>
@@ -7647,13 +7629,13 @@
         <v>421639</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7721,13 +7703,13 @@
         <v>61232</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
@@ -7736,13 +7718,13 @@
         <v>54371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
         <v>190</v>
@@ -7751,13 +7733,13 @@
         <v>115604</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7772,13 +7754,13 @@
         <v>215991</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
         <v>361</v>
@@ -7787,13 +7769,13 @@
         <v>221251</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>641</v>
@@ -7802,13 +7784,13 @@
         <v>437241</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7876,13 +7858,13 @@
         <v>71528</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
         <v>151</v>
@@ -7891,13 +7873,13 @@
         <v>201867</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>229</v>
@@ -7906,13 +7888,13 @@
         <v>273394</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7927,13 +7909,13 @@
         <v>556226</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>809</v>
@@ -7942,13 +7924,13 @@
         <v>602336</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>1330</v>
@@ -7957,13 +7939,13 @@
         <v>1158563</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8019,7 +8001,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8031,13 +8013,13 @@
         <v>54183</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>569</v>
+        <v>396</v>
       </c>
       <c r="H25" s="7">
         <v>105</v>
@@ -8046,13 +8028,13 @@
         <v>77884</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>572</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>159</v>
@@ -8061,13 +8043,13 @@
         <v>132067</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>305</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8082,13 +8064,13 @@
         <v>805245</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>576</v>
+        <v>404</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H26" s="7">
         <v>957</v>
@@ -8097,13 +8079,13 @@
         <v>790550</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>579</v>
+        <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="M26" s="7">
         <v>1665</v>
@@ -8112,13 +8094,13 @@
         <v>1595795</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>313</v>
+        <v>573</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8168,13 @@
         <v>387020</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>268</v>
+        <v>576</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="H28" s="7">
         <v>694</v>
@@ -8201,13 +8183,13 @@
         <v>533731</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="M28" s="7">
         <v>1121</v>
@@ -8216,13 +8198,13 @@
         <v>920751</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8219,13 @@
         <v>2998208</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>276</v>
+        <v>586</v>
       </c>
       <c r="H29" s="7">
         <v>4673</v>
@@ -8252,28 +8234,28 @@
         <v>3301850</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="M29" s="7">
         <v>7622</v>
       </c>
       <c r="N29" s="7">
-        <v>6300057</v>
+        <v>6300058</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8315,7 +8297,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8329,7 +8311,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_fisi_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37689927-3AF0-483F-96D6-F67E0761DDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0748DE5C-06B1-44BD-BCE0-4CEDCFE9C8D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F2CCD86-6377-46B9-B279-CBFE7AE332F4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C9F26ECA-78BD-4A1C-BF0E-06DABF22312D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="604">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad física en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -254,1570 +254,1603 @@
     <t>4,25%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>95,01%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
   </si>
   <si>
     <t>6,16%</t>
   </si>
   <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
   </si>
   <si>
     <t>93,84%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad física en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD4DF54-523E-4381-A645-A41CC4004EEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D61945-8B6E-4AD1-BFB8-B93A4E08E5AD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2827,10 +2860,10 @@
         <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>17741</v>
+        <v>18694</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>71</v>
@@ -2842,10 +2875,10 @@
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N13" s="7">
-        <v>25988</v>
+        <v>26941</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -2878,10 +2911,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I14" s="7">
-        <v>353715</v>
+        <v>352762</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -2893,10 +2926,10 @@
         <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="N14" s="7">
-        <v>704139</v>
+        <v>703186</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>83</v>
@@ -3292,10 +3325,10 @@
         <v>126</v>
       </c>
       <c r="H22" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I22" s="7">
-        <v>35555</v>
+        <v>36457</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>127</v>
@@ -3307,10 +3340,10 @@
         <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>70163</v>
+        <v>71065</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>130</v>
@@ -3343,10 +3376,10 @@
         <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I23" s="7">
-        <v>602664</v>
+        <v>601762</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>135</v>
@@ -3358,10 +3391,10 @@
         <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="N23" s="7">
-        <v>1183083</v>
+        <v>1182181</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>138</v>
@@ -3593,43 +3626,43 @@
         <v>163611</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="I28" s="7">
-        <v>209674</v>
+        <v>211529</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N28" s="7">
-        <v>373284</v>
+        <v>375140</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,46 +3674,46 @@
         <v>3052</v>
       </c>
       <c r="D29" s="7">
-        <v>3112933</v>
+        <v>3112932</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="I29" s="7">
-        <v>3169524</v>
+        <v>3167668</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
-        <v>6151</v>
+        <v>6149</v>
       </c>
       <c r="N29" s="7">
-        <v>6282456</v>
+        <v>6280601</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,7 +3725,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3707,7 +3740,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3722,7 +3755,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3736,7 +3769,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42FFE8CF-781D-401B-A130-6FD5E2DF6450}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61FA613-A525-4A01-A02C-0812F273532A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3777,7 +3810,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3878,43 +3911,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>23107</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="I4" s="7">
+        <v>37698</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="N4" s="7">
+        <v>60805</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,43 +3962,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>258</v>
+      </c>
+      <c r="D5" s="7">
+        <v>271631</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>223</v>
+      </c>
+      <c r="I5" s="7">
+        <v>249547</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>481</v>
+      </c>
+      <c r="N5" s="7">
+        <v>521178</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,43 +4013,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4072,13 @@
         <v>40881</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -4036,13 +4087,13 @@
         <v>42528</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -4051,13 +4102,13 @@
         <v>83408</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4123,13 @@
         <v>464646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
         <v>442</v>
@@ -4087,13 +4138,13 @@
         <v>481237</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
         <v>877</v>
@@ -4102,13 +4153,13 @@
         <v>945884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,13 +4227,13 @@
         <v>24209</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4191,13 +4242,13 @@
         <v>27298</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -4206,13 +4257,13 @@
         <v>51507</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4278,13 @@
         <v>299837</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="H11" s="7">
         <v>291</v>
@@ -4242,13 +4293,13 @@
         <v>313722</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
         <v>589</v>
@@ -4257,13 +4308,13 @@
         <v>613559</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4325,49 +4376,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>45230</v>
+        <v>22123</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>74607</v>
+        <v>36909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>119837</v>
+        <v>59032</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,49 +4427,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>582</v>
+        <v>324</v>
       </c>
       <c r="D14" s="7">
-        <v>623490</v>
+        <v>351859</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
-        <v>559</v>
+        <v>336</v>
       </c>
       <c r="I14" s="7">
-        <v>601589</v>
+        <v>352042</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
-        <v>1141</v>
+        <v>660</v>
       </c>
       <c r="N14" s="7">
-        <v>1225079</v>
+        <v>703901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4442,10 +4493,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4457,10 +4508,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4486,13 +4537,13 @@
         <v>27939</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -4501,13 +4552,13 @@
         <v>42904</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>67</v>
@@ -4516,13 +4567,13 @@
         <v>70844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4588,13 @@
         <v>184679</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>170</v>
@@ -4552,13 +4603,13 @@
         <v>176687</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>341</v>
@@ -4567,13 +4618,13 @@
         <v>361365</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,13 +4692,13 @@
         <v>16073</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>29</v>
@@ -4656,13 +4707,13 @@
         <v>31348</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -4671,13 +4722,13 @@
         <v>47422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4743,13 @@
         <v>257908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="H20" s="7">
         <v>240</v>
@@ -4707,13 +4758,13 @@
         <v>248683</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>486</v>
@@ -4722,13 +4773,13 @@
         <v>506590</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4847,13 @@
         <v>44659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>47</v>
@@ -4811,13 +4862,13 @@
         <v>53643</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4826,13 +4877,13 @@
         <v>98302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4898,13 @@
         <v>618129</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -4862,13 +4913,13 @@
         <v>640210</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="M23" s="7">
         <v>1167</v>
@@ -4877,13 +4928,13 @@
         <v>1258339</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +5002,13 @@
         <v>51513</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -4966,13 +5017,13 @@
         <v>51024</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -4981,13 +5032,13 @@
         <v>102538</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5053,13 @@
         <v>727585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H26" s="7">
         <v>711</v>
@@ -5017,13 +5068,13 @@
         <v>772829</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>1383</v>
@@ -5032,13 +5083,13 @@
         <v>1500413</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5157,13 @@
         <v>250504</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="H28" s="7">
         <v>296</v>
@@ -5121,13 +5172,13 @@
         <v>323353</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="M28" s="7">
         <v>523</v>
@@ -5136,13 +5187,13 @@
         <v>573858</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5208,13 @@
         <v>3176275</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="H29" s="7">
         <v>3002</v>
@@ -5172,13 +5223,13 @@
         <v>3234956</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="M29" s="7">
         <v>5984</v>
@@ -5187,13 +5238,13 @@
         <v>6411230</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,7 +5300,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5273,7 +5324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A17AA1E-4196-4217-B9DE-441F4AE38DE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31AE3AFB-B548-4505-84CE-BF57F7FF98A4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5290,7 +5341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5400,10 +5451,10 @@
         <v>35</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -5412,10 +5463,10 @@
         <v>25035</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>95</v>
@@ -5427,13 +5478,13 @@
         <v>41578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,10 +5502,10 @@
         <v>44</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="H5" s="7">
         <v>254</v>
@@ -5463,13 +5514,13 @@
         <v>263668</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>103</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>505</v>
@@ -5478,13 +5529,13 @@
         <v>540886</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,10 +5603,10 @@
         <v>16757</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>111</v>
@@ -5567,13 +5618,13 @@
         <v>21304</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -5582,13 +5633,13 @@
         <v>38061</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5654,13 @@
         <v>485818</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>465</v>
@@ -5618,10 +5669,10 @@
         <v>501780</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>118</v>
@@ -5633,13 +5684,13 @@
         <v>987598</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5758,13 @@
         <v>5075</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5722,13 +5773,13 @@
         <v>11719</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -5737,13 +5788,13 @@
         <v>16794</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,10 +5809,10 @@
         <v>313490</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>115</v>
@@ -5773,13 +5824,13 @@
         <v>324590</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>650</v>
@@ -5788,13 +5839,13 @@
         <v>638080</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5913,13 @@
         <v>30756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H13" s="7">
         <v>36</v>
@@ -5877,13 +5928,13 @@
         <v>42551</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -5892,13 +5943,13 @@
         <v>73307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5964,13 @@
         <v>339208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>322</v>
@@ -5928,13 +5979,13 @@
         <v>344732</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>646</v>
@@ -5943,13 +5994,13 @@
         <v>683940</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6068,13 @@
         <v>15139</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -6032,13 +6083,13 @@
         <v>15281</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -6047,13 +6098,13 @@
         <v>30420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6119,13 @@
         <v>196082</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="H17" s="7">
         <v>208</v>
@@ -6083,13 +6134,13 @@
         <v>203306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M17" s="7">
         <v>405</v>
@@ -6098,13 +6149,13 @@
         <v>399388</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6223,13 @@
         <v>22169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>163</v>
+        <v>404</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H19" s="7">
         <v>22</v>
@@ -6187,13 +6238,13 @@
         <v>25207</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="M19" s="7">
         <v>44</v>
@@ -6202,13 +6253,13 @@
         <v>47376</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6274,13 @@
         <v>240954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>171</v>
+        <v>414</v>
       </c>
       <c r="H20" s="7">
         <v>241</v>
@@ -6238,13 +6289,13 @@
         <v>247908</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>478</v>
@@ -6253,13 +6304,13 @@
         <v>488862</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6378,13 @@
         <v>27531</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -6342,13 +6393,13 @@
         <v>41657</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M22" s="7">
         <v>61</v>
@@ -6357,13 +6408,13 @@
         <v>69189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6429,13 @@
         <v>629027</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="H23" s="7">
         <v>610</v>
@@ -6393,13 +6444,13 @@
         <v>649637</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="M23" s="7">
         <v>1165</v>
@@ -6408,13 +6459,13 @@
         <v>1278663</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6533,13 @@
         <v>54524</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H25" s="7">
         <v>55</v>
@@ -6497,13 +6548,13 @@
         <v>61960</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -6512,13 +6563,13 @@
         <v>116484</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6584,13 @@
         <v>724059</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>700</v>
@@ -6548,13 +6599,13 @@
         <v>764207</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>1400</v>
@@ -6563,13 +6614,13 @@
         <v>1488266</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6688,13 @@
         <v>188494</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>217</v>
@@ -6652,13 +6703,13 @@
         <v>244714</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="M28" s="7">
         <v>396</v>
@@ -6667,13 +6718,13 @@
         <v>433208</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6739,13 @@
         <v>3205856</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="H29" s="7">
         <v>3121</v>
@@ -6703,13 +6754,13 @@
         <v>3299828</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>6173</v>
@@ -6718,13 +6769,13 @@
         <v>6505684</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6831,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6804,7 +6855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C46671A-F187-4AF3-A2DE-7D33960D1960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A435848-D37E-45CA-9859-EB2288CC5D66}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6821,7 +6872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6925,46 +6976,46 @@
         <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>26322</v>
+        <v>29740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>203</v>
+        <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>453</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
       </c>
       <c r="I4" s="7">
-        <v>29939</v>
+        <v>30588</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>463</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="M4" s="7">
         <v>94</v>
       </c>
       <c r="N4" s="7">
-        <v>56261</v>
+        <v>60328</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6976,46 +7027,46 @@
         <v>298</v>
       </c>
       <c r="D5" s="7">
-        <v>233976</v>
+        <v>281703</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>211</v>
+        <v>46</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>477</v>
       </c>
       <c r="I5" s="7">
-        <v>241464</v>
+        <v>259047</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>225</v>
+        <v>470</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="M5" s="7">
         <v>775</v>
       </c>
       <c r="N5" s="7">
-        <v>475439</v>
+        <v>540749</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,7 +7078,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7042,7 +7093,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7057,7 +7108,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7077,49 +7128,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>94007</v>
+        <v>88648</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>468</v>
+        <v>188</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H7" s="7">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I7" s="7">
-        <v>87362</v>
+        <v>79217</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="M7" s="7">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="N7" s="7">
-        <v>181369</v>
+        <v>167865</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,49 +7179,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" s="7">
-        <v>425290</v>
+        <v>429742</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>477</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="I8" s="7">
-        <v>467204</v>
+        <v>435752</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M8" s="7">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="N8" s="7">
-        <v>892495</v>
+        <v>865494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,7 +7233,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7197,7 +7248,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7212,7 +7263,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7235,46 +7286,46 @@
         <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>41712</v>
+        <v>40240</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>41037</v>
+        <v>38173</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>493</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="M10" s="7">
         <v>114</v>
       </c>
       <c r="N10" s="7">
-        <v>82750</v>
+        <v>78413</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7286,46 +7337,46 @@
         <v>308</v>
       </c>
       <c r="D11" s="7">
-        <v>280528</v>
+        <v>275810</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
       </c>
       <c r="I11" s="7">
-        <v>332247</v>
+        <v>310955</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>501</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>782</v>
       </c>
       <c r="N11" s="7">
-        <v>612774</v>
+        <v>586765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,7 +7388,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7352,7 +7403,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7367,7 +7418,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7387,49 +7438,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>23697</v>
+        <v>21229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>497</v>
+        <v>149</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>498</v>
+        <v>57</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>20987</v>
+        <v>18236</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N13" s="7">
-        <v>44685</v>
+        <v>39465</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>232</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,49 +7489,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D14" s="7">
-        <v>298543</v>
+        <v>291328</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>505</v>
+        <v>159</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>507</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="I14" s="7">
-        <v>407569</v>
+        <v>457482</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="M14" s="7">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="N14" s="7">
-        <v>706111</v>
+        <v>748809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>242</v>
+        <v>518</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7492,7 +7543,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7507,7 +7558,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7522,7 +7573,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7545,46 +7596,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>14338</v>
+        <v>12940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>182</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
       </c>
       <c r="I16" s="7">
-        <v>20284</v>
+        <v>18401</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>429</v>
+        <v>524</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
       </c>
       <c r="N16" s="7">
-        <v>34621</v>
+        <v>31341</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,46 +7647,46 @@
         <v>256</v>
       </c>
       <c r="D17" s="7">
-        <v>182410</v>
+        <v>165802</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>190</v>
+        <v>530</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="H17" s="7">
         <v>446</v>
       </c>
       <c r="I17" s="7">
-        <v>239229</v>
+        <v>240378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>40</v>
+        <v>532</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>534</v>
       </c>
       <c r="M17" s="7">
         <v>702</v>
       </c>
       <c r="N17" s="7">
-        <v>421639</v>
+        <v>406180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7647,7 +7698,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7662,7 +7713,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7677,7 +7728,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7697,49 +7748,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="7">
-        <v>61232</v>
+        <v>57024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="H19" s="7">
         <v>99</v>
       </c>
       <c r="I19" s="7">
-        <v>54371</v>
+        <v>50501</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="M19" s="7">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N19" s="7">
-        <v>115604</v>
+        <v>107525</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,49 +7799,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D20" s="7">
-        <v>215991</v>
+        <v>212612</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="H20" s="7">
         <v>361</v>
       </c>
       <c r="I20" s="7">
-        <v>221251</v>
+        <v>206555</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="M20" s="7">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N20" s="7">
-        <v>437241</v>
+        <v>419167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>541</v>
+        <v>554</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>542</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7802,7 +7853,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7817,7 +7868,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7832,7 +7883,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7855,46 +7906,46 @@
         <v>78</v>
       </c>
       <c r="D22" s="7">
-        <v>71528</v>
+        <v>69020</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>543</v>
+        <v>556</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>544</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="H22" s="7">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I22" s="7">
-        <v>201867</v>
+        <v>288552</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="M22" s="7">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N22" s="7">
-        <v>273394</v>
+        <v>357572</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,46 +7957,46 @@
         <v>521</v>
       </c>
       <c r="D23" s="7">
-        <v>556226</v>
+        <v>555259</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>554</v>
+        <v>307</v>
       </c>
       <c r="H23" s="7">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="I23" s="7">
-        <v>602336</v>
+        <v>560713</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>556</v>
+        <v>567</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="M23" s="7">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="N23" s="7">
-        <v>1158563</v>
+        <v>1115972</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>558</v>
+        <v>569</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>559</v>
+        <v>570</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +8008,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7972,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7987,7 +8038,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8007,49 +8058,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7">
-        <v>54183</v>
+        <v>43150</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>396</v>
+        <v>574</v>
       </c>
       <c r="H25" s="7">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I25" s="7">
-        <v>77884</v>
+        <v>60441</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>451</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>33</v>
+        <v>576</v>
       </c>
       <c r="M25" s="7">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="N25" s="7">
-        <v>132067</v>
+        <v>103591</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,49 +8109,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="D26" s="7">
-        <v>805245</v>
+        <v>885570</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>404</v>
+        <v>581</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>569</v>
+        <v>582</v>
       </c>
       <c r="H26" s="7">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="I26" s="7">
-        <v>790550</v>
+        <v>657290</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>570</v>
+        <v>583</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>584</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>571</v>
+        <v>456</v>
       </c>
       <c r="M26" s="7">
-        <v>1665</v>
+        <v>1672</v>
       </c>
       <c r="N26" s="7">
-        <v>1595795</v>
+        <v>1542861</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>573</v>
+        <v>586</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8112,7 +8163,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8127,7 +8178,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8142,7 +8193,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8162,49 +8213,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D28" s="7">
-        <v>387020</v>
+        <v>361991</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>576</v>
+        <v>201</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="H28" s="7">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="I28" s="7">
-        <v>533731</v>
+        <v>584109</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="M28" s="7">
-        <v>1121</v>
+        <v>1106</v>
       </c>
       <c r="N28" s="7">
-        <v>920751</v>
+        <v>946100</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8213,49 +8264,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>2949</v>
+        <v>2954</v>
       </c>
       <c r="D29" s="7">
-        <v>2998208</v>
+        <v>3097826</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>586</v>
+        <v>210</v>
       </c>
       <c r="H29" s="7">
-        <v>4673</v>
+        <v>4683</v>
       </c>
       <c r="I29" s="7">
-        <v>3301850</v>
+        <v>3128171</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>588</v>
+        <v>599</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>589</v>
+        <v>600</v>
       </c>
       <c r="M29" s="7">
-        <v>7622</v>
+        <v>7637</v>
       </c>
       <c r="N29" s="7">
-        <v>6300058</v>
+        <v>6225997</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>590</v>
+        <v>601</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>591</v>
+        <v>602</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8267,7 +8318,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8282,7 +8333,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8297,7 +8348,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8311,7 +8362,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
